--- a/biology/Botanique/Chèvrefeuille_de_Maack/Chèvrefeuille_de_Maack.xlsx
+++ b/biology/Botanique/Chèvrefeuille_de_Maack/Chèvrefeuille_de_Maack.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_de_Maack</t>
+          <t>Chèvrefeuille_de_Maack</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera maackii
 Le Chèvrefeuille de Maack ou  Clématite de Maack (Lonicera maackii (Rupr.) Maxim.), est un arbuste de la famille des Caprifoliacées, cultivé comme plante ornementale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_de_Maack</t>
+          <t>Chèvrefeuille_de_Maack</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'âge adulte, la plante, à croissance lente, atteint une taille de 5 m. Son port est droit et érigé.
 Les feuilles sont allongées, entières, lancéolées, opposées, avec un pétiole court et duveteux comme le bas de la nervure. La tige est creuse.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_de_Maack</t>
+          <t>Chèvrefeuille_de_Maack</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de la Chine et du Japon, le Chèvrefeuille de Maack est naturalisé en Amérique du Nord.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_de_Maack</t>
+          <t>Chèvrefeuille_de_Maack</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Préférant un emplacement ensoleillé ou à mi ombre, la plante s'adapte à tous les climats et tous les types de sols.
 Elle se multiplie par bouturage semi-ligneux et herbacé.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_de_Maack</t>
+          <t>Chèvrefeuille_de_Maack</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chèvrefeuille de Maack se cultive en haie fleurie, en massif ou comme plante isolée.
 </t>
